--- a/Transavia/Production/Results/Results_daily_FNC.xlsx
+++ b/Transavia/Production/Results/Results_daily_FNC.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>0.001101893722079694</v>
+        <v>0.02469292283058167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.001125045120716095</v>
+        <v>0.004787817597389221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.001053132931701839</v>
+        <v>0.0009668317507021129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.2133978307247162</v>
+        <v>0.001041460200212896</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.2410435527563095</v>
+        <v>0.0009700424852780998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.2430550754070282</v>
+        <v>0.0007049579871818423</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2290327548980713</v>
+        <v>0.0006052714306861162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1959308683872223</v>
+        <v>0.0006201034993864596</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.1535196453332901</v>
+        <v>0.0005630366504192352</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.1362056136131287</v>
+        <v>0.0005630366504192352</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.08930245786905289</v>
+        <v>0.0005630366504192352</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.07777398824691772</v>
+        <v>0.002733958419412374</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.006587047595530748</v>
+        <v>0.04207102581858635</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0.0004663852159865201</v>
+        <v>0.1223608404397964</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0.000461734103737399</v>
+        <v>0.180463969707489</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0.000461734103737399</v>
+        <v>0.2024196088314056</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.000461734103737399</v>
+        <v>0.2377208769321442</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.000461734103737399</v>
+        <v>0.2240878641605377</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0.0003562202327884734</v>
+        <v>0.1845534145832062</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.0002987956104334444</v>
+        <v>0.1521808952093124</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0.0006359553663060069</v>
+        <v>0.1156473755836487</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>0.0008794368477538228</v>
+        <v>0.07903467118740082</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.006779152899980545</v>
+        <v>0.04413280263543129</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0.04566772654652596</v>
+        <v>0.02860629744827747</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0.1043477207422256</v>
+        <v>0.009920448996126652</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>0.1526715457439423</v>
+        <v>0.000721398217137903</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0.1749730110168457</v>
+        <v>0.0005694364663213491</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.2028751224279404</v>
+        <v>0.0004985581617802382</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.2364920526742935</v>
+        <v>0.0004985581617802382</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.2410456091165543</v>
+        <v>0.0004919632337987423</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.2285138517618179</v>
+        <v>0.0004407536762300879</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.1889411956071854</v>
+        <v>0.0004407536762300879</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.1565467119216919</v>
+        <v>0.000437302835052833</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0.1155237182974815</v>
+        <v>0.0004372443945612758</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.0857742577791214</v>
+        <v>0.0004372443945612758</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.05928518623113632</v>
+        <v>0.002175966277718544</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.006153710652142763</v>
+        <v>0.02926836907863617</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.0004593834455590695</v>
+        <v>0.07275206595659256</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.0003895979607477784</v>
+        <v>0.1019207984209061</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>0.0003895979607477784</v>
+        <v>0.1222747638821602</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.0005060653784312308</v>
+        <v>0.1462168544530869</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0.0004628727037925273</v>
+        <v>0.170802041888237</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>0.0003515176940709352</v>
+        <v>0.1770804524421692</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>0.0002162971504731104</v>
+        <v>0.144496887922287</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>0.0003782323619816452</v>
+        <v>0.1081455871462822</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>0.000462972471723333</v>
+        <v>0.07488630712032318</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.002579928608611226</v>
+        <v>0.05364146456122398</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.02749068662524223</v>
+        <v>0.04084515199065208</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0.06218847259879112</v>
+        <v>0.01902076229453087</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>0.1050834655761719</v>
+        <v>0.00338188954629004</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>0.1288692057132721</v>
+        <v>0.0004923947853967547</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0.1308488249778748</v>
+        <v>0.0004407567612361163</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>0.1483526676893234</v>
+        <v>0.0004313207173254341</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>0.1468760520219803</v>
+        <v>0.0004328508803155273</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.1478120535612106</v>
+        <v>0.0004086502594873309</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.1510741859674454</v>
+        <v>0.0004142032703384757</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.1313478201627731</v>
+        <v>0.0004534130566753447</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.08754505962133408</v>
+        <v>0.0004543643444776535</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.07455510646104813</v>
+        <v>0.0004619153332896531</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.05100706964731216</v>
+        <v>0.00430285232141614</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.004492712672799826</v>
+        <v>0.05242834612727165</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>0.0003247513086535037</v>
+        <v>0.120962381362915</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0.0004405273066367954</v>
+        <v>0.1820616871118546</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.000400847289711237</v>
+        <v>0.2063860297203064</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0.0004316038393881172</v>
+        <v>0.2530412077903748</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>0.0004316038393881172</v>
+        <v>0.274675577878952</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>0.0003373526269569993</v>
+        <v>0.276815265417099</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>0.0001601613330421969</v>
+        <v>0.2508989274501801</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>0.0003077563887927681</v>
+        <v>0.21682208776474</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>0.0007315786206163466</v>
+        <v>0.1187288388609886</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.005146645940840244</v>
+        <v>0.1437529176473618</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0.0383448414504528</v>
+        <v>0.07723875343799591</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.08985855430364609</v>
+        <v>0.05368685722351074</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>0.1466403156518936</v>
+        <v>0.004416864831000566</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>0.1734267920255661</v>
+        <v>0.000609830254688859</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>0.1982992738485336</v>
+        <v>0.0005029861931689084</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>0.2303130924701691</v>
+        <v>0.0005029861931689084</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>0.2277674823999405</v>
+        <v>0.0004513480525929481</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.2043268233537674</v>
+        <v>0.0004367401415947825</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.1584577113389969</v>
+        <v>0.0004367401415947825</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.1570719629526138</v>
+        <v>0.0004367401415947825</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.107461117208004</v>
+        <v>0.0004595878417603672</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.08068569004535675</v>
+        <v>0.0004595878417603672</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.05711100250482559</v>
+        <v>0.005822156090289354</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.00456673838198185</v>
+        <v>0.06353120505809784</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.0003916384885087609</v>
+        <v>0.1368090808391571</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>0.0005081058479845524</v>
+        <v>0.2218732982873917</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.0004684257437475026</v>
+        <v>0.2376145124435425</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.0004684257437475026</v>
+        <v>0.2725586891174316</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0.0004637746314983815</v>
+        <v>0.2739382684230804</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>0.0003524195635691285</v>
+        <v>0.2673918604850769</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>0.0002431376778986305</v>
+        <v>0.2486577033996582</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>0.0004082670784555376</v>
+        <v>0.2087813317775726</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>0.0007866916130296886</v>
+        <v>0.1325117647647858</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0.005124780815094709</v>
+        <v>0.09971394389867783</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0.04384905472397804</v>
+        <v>0.05675641447305679</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>0.09739609807729721</v>
+        <v>0.02764426916837692</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>0.1471830606460571</v>
+        <v>0.00698302686214447</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>0.1732567548751831</v>
+        <v>0.0009629593114368618</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0.196224644780159</v>
+        <v>0.0009629593114368618</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.2295774519443512</v>
+        <v>0.0007441122434101999</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>0.2111143618822098</v>
+        <v>0.0007456424064002931</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.1558632552623749</v>
+        <v>0.0006510610110126436</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.159907728433609</v>
+        <v>0.000467452104203403</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.1398454308509827</v>
+        <v>0.0004730051150545478</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.08698151260614395</v>
+        <v>0.0004730051150545478</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.07803526520729065</v>
+        <v>0.0004730051150545478</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.05348394066095352</v>
+        <v>0.004915941040962934</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.00325406133197248</v>
+        <v>0.05034932866692543</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>0.0004593718040268868</v>
+        <v>0.1234514489769936</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.0004912792937830091</v>
+        <v>0.1843908280134201</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0.0004915382596664131</v>
+        <v>0.2232040464878082</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0.0003895979607477784</v>
+        <v>0.2627276182174683</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.0003895979607477784</v>
+        <v>0.2682044804096222</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>0.0003947101649828255</v>
+        <v>0.260386049747467</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0.0002306850074091926</v>
+        <v>0.2262984365224838</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>0.0003958145389333367</v>
+        <v>0.1989494115114212</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>0.0007866916130296886</v>
+        <v>0.1290018558502197</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0.005178758408874273</v>
+        <v>0.0762086883187294</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0.04323018342256546</v>
+        <v>0.04933464154601097</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>0.09874685108661652</v>
+        <v>0.02541966550052166</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>0.1493806391954422</v>
+        <v>0.006639681756496429</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0.1731025278568268</v>
+        <v>0.0008528332109563053</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>0.1957372575998306</v>
+        <v>0.0009268017020076513</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>0.2284157276153564</v>
+        <v>0.00100168923381716</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>0.2398501336574554</v>
+        <v>0.00100168923381716</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.2280464619398117</v>
+        <v>0.0004512500308919698</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.203751415014267</v>
+        <v>0.0004512500308919698</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0.1522616446018219</v>
+        <v>0.0004570653254631907</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0.1335541903972626</v>
+        <v>0.0004570653254631907</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.08772221952676773</v>
+        <v>0.0004574359918478876</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>0.05911160632967949</v>
+        <v>0.004498838912695646</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.00542551651597023</v>
+        <v>0.04167716205120087</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>0.00068022555205971</v>
+        <v>0.09641549736261368</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.000464473181637004</v>
+        <v>0.1639855355024338</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>0.00046289581223391</v>
+        <v>0.2089737802743912</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0.00046289581223391</v>
+        <v>0.2294198125600815</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0.0004950507427565753</v>
+        <v>0.2452607452869415</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>0.0002782428928185254</v>
+        <v>0.2459529936313629</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.000168107173522003</v>
+        <v>0.2375177890062332</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.0004354946431703866</v>
+        <v>0.2117457687854767</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>0.0007913430454209447</v>
+        <v>0.1453528106212616</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0.005306473933160305</v>
+        <v>0.1030037626624107</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0.04482432454824448</v>
+        <v>0.05507496371865273</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>0.09821873158216476</v>
+        <v>0.02544829808175564</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>0.1458747386932373</v>
+        <v>0.006214858964085579</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0.1720224171876907</v>
+        <v>0.000469645659904927</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>0.1956774145364761</v>
+        <v>0.000469645659904927</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>0.2286118865013123</v>
+        <v>0.000469645659904927</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>0.2374098896980286</v>
+        <v>0.0004938178462907672</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0.2280562818050385</v>
+        <v>0.0004797267902176827</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>0.203751415014267</v>
+        <v>0.0004550214798655361</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>0.1521509736776352</v>
+        <v>0.0004698535776697099</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>0.1330499947071075</v>
+        <v>0.0004760395095217973</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.08830556273460388</v>
+        <v>0.0004367767251096666</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.05605954676866531</v>
+        <v>0.006525128148496151</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.005095044616609812</v>
+        <v>0.06052002683281898</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>0.000486354372696951</v>
+        <v>0.1340507119894028</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>0.0004607017326634377</v>
+        <v>0.2088619321584702</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0.0004591244796756655</v>
+        <v>0.242591381072998</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.0004912792937830091</v>
+        <v>0.2683982253074646</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.0003858265117742121</v>
+        <v>0.2740512490272522</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0.0002747187973000109</v>
+        <v>0.2667151093482971</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0.0002637685101944953</v>
+        <v>0.2525445520877838</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>0.000389726017601788</v>
+        <v>0.2265249490737915</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>0.0007806025678291917</v>
+        <v>0.1420428305864334</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0.003031600266695023</v>
+        <v>0.1394997984170914</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.03576727584004402</v>
+        <v>0.06303708255290985</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.08326549082994461</v>
+        <v>0.04385620355606079</v>
       </c>
     </row>
   </sheetData>
